--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -473,19 +473,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>communication message</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,43 +497,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+          <t>BCIO:044003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -545,19 +550,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -569,19 +574,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:044094</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>communication style conveying support for change</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -593,19 +598,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -617,38 +622,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>verbally dominant communication style</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -660,72 +670,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>responsive communication style</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
+          <t>BCIO:044095</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>intellectual communication style</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -737,38 +747,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>cold communication style</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -776,28 +791,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -805,28 +820,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>communication using formal address</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -838,62 +853,82 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>communication using informal address</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>warm communication style</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>humorous communication style</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -905,19 +940,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>respectful communication style</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -925,33 +960,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>eliciting or seeking information</t>
+          <t>"acknowledging the victim's feelings"</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about a topic</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -959,57 +994,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1017,129 +1052,139 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about an experience</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>structured communication style</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>informal communication style</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>legitimising communication style</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1147,28 +1192,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1180,38 +1230,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>patient communication style</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>anxious communication style</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1223,67 +1283,77 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>communication style conveying hopefulness</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>polite communication style</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1295,19 +1365,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1315,279 +1385,254 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>aggressive communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>engaging communication style</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>behaviour change intervention style of delivery</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1595,71 +1640,81 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>angry communication style</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>empathic communication style</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>communication using non-pressurising language</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1671,163 +1726,198 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>communication avoiding offensive language</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>easily comprehended communication style</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>non-confrontational communication style</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1839,86 +1929,96 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+          <t>oral communication pace</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>communication offering choice</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>relationship building</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -1926,28 +2026,33 @@
           <t>style of delivery</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>communication encouraging discussion</t>
+          <t>object visual style</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -1955,28 +2060,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>communication evoking another's ideas about change</t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -1984,163 +2089,153 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>communication understating intensity of person's views</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>script-based communication</t>
+          <t>communication involving agreement</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2152,82 +2247,67 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>offering reassurance</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>communication using specialist language</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2237,89 +2317,74 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>communication using neutral language</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>communication using slang</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>asking questions</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>communication using non-pressurising language</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2331,153 +2396,188 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>communication exploring a person's feelings about a topic</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>communication exploring a person's thoughts about a topic</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2485,47 +2585,62 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>branded communication</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>BCIO:044049</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2533,28 +2648,38 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2566,19 +2691,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>controlling communication style</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2590,106 +2715,86 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>didactic communication style</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
+          <t>Asking questions in order to better understand an issue.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2697,158 +2802,133 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>intellectual communication style</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>theatrical communication style</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>communication style conveying support for change</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>non-confrontational communication style</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -2860,48 +2940,43 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>empathic communication style</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>legitimising communication style</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -2909,81 +2984,81 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>communication style conveying concern</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>non-responsive communication style</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>communication using deliberate pauses</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -2991,105 +3066,115 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>fun</t>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>communication style conveying acceptance</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>formal communication style</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3097,62 +3182,47 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>communication style conveying hopefulness</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3160,96 +3230,71 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>attentive communication style</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>directive communication style</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>impatient communication style</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3261,43 +3306,48 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>interactive communication style</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3307,60 +3357,45 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>interactive presentation</t>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>communication style conveying genuineness</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3368,28 +3403,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>sincerity</t>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>classroom-style discussion</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3401,19 +3436,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>engaging communication style</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3425,53 +3460,38 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>aloof communication style</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3483,19 +3503,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>re-evaluation prompting reflective communication</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3503,201 +3523,226 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>emotion-emphasising reflective communication</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>persuasive communication style</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>communication using a particular form of address</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>communication using preferred form of address</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>communication using informal address</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>communication using formal address</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3709,101 +3754,91 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>verbally dominant communication style</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>humorous communication style</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>structured communication style</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>communication showing acknowledgement</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>communication acknowledging difficulties</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3815,19 +3850,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>communication style demonstrating positive regard</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -3839,72 +3874,72 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>non-judgmental communication style</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+          <t>A communication that transmits the content of an intervention</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>behaviour change intervention content communication process</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -3912,28 +3947,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>angry communication style</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -3945,19 +3980,19 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -3969,87 +4004,67 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>oral communication pace</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4061,48 +4076,43 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4110,9 +4120,119 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BCIO:044008</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>source-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BCIO:008000</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BCIO:044006</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BCIO:044007</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,54 +441,54 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>communication message</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -497,22 +497,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -521,70 +521,70 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>BCIO:044071</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -593,142 +593,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>summarising reflective communication</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>metaphor-using reflective communication</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
+          <t>BCIO:044073</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>double-sided reflective communication</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -737,123 +762,133 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -862,41 +897,46 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -905,316 +945,301 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>exploring communication</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>eliciting or seeking information</t>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Elicit concerns, problems and reactions</t>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about an experience</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>clarifying what someone has said</t>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>communication understating intensity of person's views</t>
+          <t>communication adding intensity to another's views</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>interrupting</t>
+          <t>communication evoking another's ideas about change</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>communication involving confirmatory rephrasing</t>
+          <t>communication involving agreement</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>classroom-style discussion</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>communication avoiding argumentation</t>
+          <t>script-based communication</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>communication checking for others' understanding</t>
+          <t>emotionally expressive communication</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1223,70 +1248,75 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>communication asking permission to provide information and advice</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>reflective communication</t>
+          <t>communication avoiding interrupting</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1295,374 +1325,334 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>re-evaluation prompting reflective communication</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>asking leading questions</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>affirming communication</t>
+          <t>communication encouraging discussion</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>communication asking permission to provide information and advice</t>
+          <t>communication checking for own understanding</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>communication using particular language</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1671,378 +1661,418 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>communication using slang</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>behaviour change intervention content communication process</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>communication using selected words from a second language</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>using jargon</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>communication adding intensity to another's views</t>
+          <t>communication offering choice</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>narrative communication</t>
+          <t>exploring communication</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>communication encouraging discussion</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>evoking change talk in motivational interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2051,22 +2081,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>communication using particular language</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2075,51 +2105,46 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>communication using neutral language</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2128,254 +2153,219 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>communication acknowledging difficulties</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>offering reassurance</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>communication using non-pressurising language</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>communication using slang</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>active listening</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>communication using imperatives</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>banter</t>
+          <t>guiding communication</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>communication inviting reactions to content presented</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>asking directive questions</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2384,180 +2374,185 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>source-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>communication highlighting a contradiction</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2566,22 +2561,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2590,196 +2585,186 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>warm communication style</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>friendly communication style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>BCIO:044003</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>easily comprehended communication style</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2788,181 +2773,191 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>sensitivity, compassion</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by nervousness or unease.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2971,80 +2966,80 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3053,346 +3048,341 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>optimism, positivity</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>sincerity</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3401,22 +3391,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3425,56 +3415,46 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>aggressive communication style</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3483,51 +3463,46 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3536,22 +3511,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3560,22 +3535,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3584,46 +3559,56 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3632,22 +3617,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3656,75 +3641,80 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>calm communication style</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3733,24 +3723,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
@@ -3772,17 +3767,17 @@
           <t>A communication style involving the communication content having constituent pre-planned parts.</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
       <c r="G128" t="inlineStr">
         <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
           <t>standardised</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
@@ -3791,22 +3786,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3815,22 +3810,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
+          <t>A communication style conveying information in a hurried way.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3839,51 +3834,51 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3892,51 +3887,46 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3945,22 +3935,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>communication style conveying concern</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3969,90 +3959,80 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>respectful communication style</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4061,29 +4041,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
@@ -4105,14 +4080,159 @@
           <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BCIO:044126</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BCIO:044128</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>source visual style</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BCIO:044125</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>tone of voice</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BCIO:044129</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>object layout</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BCIO:044127</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -441,54 +441,54 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>communication message</t>
+          <t>communication source</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -497,22 +497,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
+          <t>BCIO:050384</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>communication channel</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -521,239 +526,214 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>BCIO:044059</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>communication adding intensity to another's views</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>reflective communication</t>
+          <t>communication inviting reactions to content presented</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>re-evaluation prompting reflective communication</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>communication checking for others' understanding</t>
+          <t>exploring communication</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -762,51 +742,56 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -815,80 +800,80 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>clarifying what someone has said</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>narrative communication</t>
+          <t>communication avoiding interrupting</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -897,349 +882,359 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>communication showing acknowledgement</t>
+          <t>communication involving agreement</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>communication acknowledging difficulties</t>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>communication using interjections to signal attentiveness</t>
+          <t>communication asking permission to provide information and advice</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>communication understating intensity of person's views</t>
+          <t>script-based communication</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>communication highlighting a contradiction</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>relationship building</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>communication adding intensity to another's views</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>communication evoking another's ideas about change</t>
+          <t>communication using particular language</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>communication using non-pressurising language</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>communication using slang</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>communication using neutral language</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>communication using specialist language</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>using jargon</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1248,75 +1243,75 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>communication asking permission to provide information and advice</t>
+          <t>communication encouraging discussion</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>communication avoiding interrupting</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+          <t>A communication in which some participant requests information from another participant.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1325,94 +1320,84 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>asking clarifying questions</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1421,22 +1406,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>asking questions</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>asking leading questions</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1445,41 +1435,56 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1488,22 +1493,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1512,147 +1522,157 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>double-sided reflective communication</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>summarising reflective communication</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1661,92 +1681,77 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>metaphor-using reflective communication</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>affirming communication</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>made reassuring statements</t>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>based on Roter Interactional Analysis System</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
@@ -1768,258 +1773,253 @@
           <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>Change for Life, Time to Change, NHS Smokefree</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>communication involving confirmatory rephrasing</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>communication using preferred form of address</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Elicit concerns, problems and reactions</t>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2028,51 +2028,46 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2081,22 +2076,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>communication using particular language</t>
+          <t>guiding communication</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2105,46 +2105,41 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>communication using neutral language</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>communication showing acknowledgement</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2153,51 +2148,51 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>communication acknowledging difficulties</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>using jargon</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>communication using selected words from a second language</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2206,22 +2201,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>A communication that transmits the content of an intervention</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2230,22 +2230,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>behaviour change intervention content communication process</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2254,94 +2259,89 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>communication avoiding argumentation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>guiding communication</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>shifting focus of communication</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2365,7 +2365,7 @@
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2374,22 +2374,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2417,22 +2417,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2456,7 +2456,7 @@
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2465,22 +2465,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>communication source</t>
+          <t>communication recipient</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2489,22 +2489,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2513,22 +2513,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>BCIO:050374</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2552,7 +2552,7 @@
           <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2576,7 +2576,7 @@
           <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2585,22 +2585,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+          <t>BCIO:050555</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2609,22 +2609,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>communication recipient</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2650,34 +2650,44 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2686,85 +2696,80 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>relaxed communication style</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>readability</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>active participation encouraging communication style</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>tone of voice</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2773,109 +2778,104 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>patient communication style</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>object layout</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>"willing to listen"</t>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>empathic communication style</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2884,22 +2884,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2908,56 +2918,56 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2966,80 +2976,75 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3048,56 +3053,51 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Note that this class is different from direct communication style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3106,80 +3106,75 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>didactic communication style</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3188,34 +3183,34 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>This can involve using plain and simple language</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
@@ -3239,126 +3234,121 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>fun</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3367,22 +3357,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3391,22 +3386,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3415,22 +3410,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3439,22 +3434,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3478,7 +3473,7 @@
           <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3487,22 +3482,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3511,22 +3511,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3535,22 +3535,32 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3559,56 +3569,61 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3617,22 +3632,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3641,80 +3656,70 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>fun</t>
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3738,70 +3743,65 @@
           <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>sincerity</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>standardised</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3810,22 +3810,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3834,51 +3834,51 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3887,22 +3887,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3911,22 +3916,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3935,22 +3945,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3959,22 +3969,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3983,56 +3993,61 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4041,22 +4056,32 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4065,51 +4090,46 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>controlling communication style</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4118,56 +4138,51 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>communication style conveying acceptance</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>communication style conveying hopefulness</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4176,63 +4191,48 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>oral communication pace</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -446,99 +446,99 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>communication recipient</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:044004</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -546,28 +546,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -579,53 +579,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>humorous communication style</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -637,19 +627,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -661,77 +651,77 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -739,115 +729,110 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+          <t>A communication style characterised by anger.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -859,43 +844,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -907,19 +897,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -927,28 +917,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -960,19 +950,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -984,19 +974,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1008,67 +998,82 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1080,19 +1085,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1104,96 +1109,101 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1205,19 +1215,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1225,81 +1235,91 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1307,33 +1327,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1341,38 +1356,38 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
@@ -1403,43 +1418,53 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1451,188 +1476,178 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1644,48 +1659,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1693,33 +1703,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1731,19 +1736,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1751,28 +1756,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1784,43 +1794,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1828,28 +1843,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>fun</t>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1861,19 +1876,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>didactic communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1881,52 +1896,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>formal communication style</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>attentive communication style</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>object layout</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1934,33 +1954,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>source visual style</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1968,57 +1988,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>readability</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2026,96 +2046,76 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
+          <t>BCIO:050555</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication recipient</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2127,19 +2127,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2151,38 +2151,43 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>source-led intervention delivery</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2194,19 +2199,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2218,19 +2223,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>communication message</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2242,19 +2247,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>BCIO:044007</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2266,134 +2271,134 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>BCIO:008000</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>guiding communication</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2403,79 +2408,79 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>communication using rational arguments</t>
+          <t>paraphrasing</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>intervention content communication process</t>
+          <t>emotionally expressive communication</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2483,28 +2488,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>script-based communication</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2514,26 +2519,26 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2541,100 +2546,105 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>classroom-style discussion</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+          <t>communication using particular language</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2646,19 +2656,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>communication avoiding offensive language</t>
+          <t>communication using neutral language</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2670,19 +2680,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2694,43 +2704,48 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>communication using non-pressurising language</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2742,19 +2757,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2766,19 +2781,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2786,124 +2801,114 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>using jargon</t>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>communication showing acknowledgement</t>
+          <t>communication adding intensity to another's views</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>communication checking for others' understanding</t>
+          <t>communication involving confirmatory rephrasing</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>communication encouraging discussion</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>intervention content communication process</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+          <t>A communication that transmits the content of an intervention</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -2911,28 +2916,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -2942,26 +2947,26 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>interrupting</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -2973,72 +2978,62 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>active listening</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3050,19 +3045,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3070,311 +3065,326 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>asking clarifying questions</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>branded communication</t>
+          <t>communication avoiding argumentation</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>communication exploring a person's thoughts about a topic</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3382,47 +3392,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>communication adding intensity to another's views</t>
+          <t>communication using commands</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>communication evoking another's ideas about change</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3430,192 +3450,162 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>communication understating intensity of person's views</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>guiding communication</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>interrupting</t>
+          <t>communication involving agreement</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>exploring communication</t>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about an experience</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3623,28 +3613,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>communication using deliberate pauses</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3652,76 +3647,86 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>communication asking permission to provide information and advice</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3733,19 +3738,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3753,230 +3758,240 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>re-evaluation prompting reflective communication</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>metaphor-using reflective communication</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>double-sided reflective communication</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -3984,96 +3999,76 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>communication using interjections to signal attentiveness</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>communication using deliberate pauses</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4081,33 +4076,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
+          <t>BCIO:044044</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4119,43 +4109,48 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:044046</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:044045</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4167,19 +4162,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4191,43 +4186,48 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>script-based communication</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -446,14 +446,14 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="I1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -461,12 +461,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
@@ -502,72 +502,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -579,125 +579,130 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -709,130 +714,130 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -844,101 +849,101 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -950,96 +955,106 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+          <t>A communication style characterised by anger.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1049,12 +1064,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
@@ -1085,43 +1095,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1129,52 +1144,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1184,31 +1204,41 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
@@ -1237,31 +1267,31 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1269,33 +1299,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>non-defensive communication style</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1307,19 +1332,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1327,86 +1352,81 @@
           <t>style of delivery</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>sensitivity, compassion</t>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1418,130 +1438,125 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1551,31 +1566,26 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1611,19 +1621,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1635,19 +1645,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>aggressive communication style</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1659,19 +1669,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1683,19 +1693,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1705,26 +1715,31 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>interactive presentation</t>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1736,19 +1751,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1756,33 +1771,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Note that this class is different from direct communication style</t>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1794,77 +1804,67 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1876,19 +1876,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1896,38 +1896,38 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
           <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
@@ -1993,7 +1993,7 @@
           <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
@@ -2026,19 +2026,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>object visual style</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
@@ -2079,19 +2079,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>communication message</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2103,19 +2103,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>BCIO:044006</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2127,19 +2127,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>BCIO:008000</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2151,43 +2151,38 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2199,19 +2194,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2223,19 +2218,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication source</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2247,19 +2242,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2271,86 +2266,101 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:044044</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2362,43 +2372,48 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
+          <t>BCIO:044046</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>BCIO:044070</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2406,28 +2421,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>paraphrasing</t>
+          <t>communication evoking another's ideas about change</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2437,50 +2452,45 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>communication involving elaboration of arguments</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>relationship building</t>
+          <t>exploring communication</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2490,26 +2500,31 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2517,28 +2532,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2546,81 +2561,86 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>communication using particular language</t>
+          <t>negotiation</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2632,19 +2652,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2704,48 +2724,43 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2757,19 +2772,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>communication using non-pressurising language</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2781,19 +2796,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>communication using specialist language</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2801,85 +2816,105 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>communication adding intensity to another's views</t>
+          <t>branded communication</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>communication offering choice</t>
+          <t>emotionally expressive communication</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>communication involving confirmatory rephrasing</t>
+          <t>communication highlighting a contradiction</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>communication encouraging discussion</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -2887,349 +2922,379 @@
           <t>style of delivery</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>intervention content communication process</t>
+          <t>communication avoiding interrupting</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>interrupting</t>
+          <t>communication offering choice</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>communication highlighting a contradiction</t>
+          <t>communication checking for own understanding</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>communication encouraging discussion</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>communication avoiding argumentation</t>
+          <t>relationship building</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>affirming communication</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>communication using commands</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>branded communication</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3237,183 +3302,138 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>use of branding; brand identity</t>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about an experience</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3423,257 +3443,232 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>communication using imperatives</t>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>communication evoking another's ideas about change</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>guiding communication</t>
+          <t>shifting focus of communication</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>communication involving agreement</t>
+          <t>guiding communication</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>offering reassurance</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>asking clarifying questions</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>Asking questions in order to better understand an issue.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3685,19 +3680,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>asking leading questions</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3707,50 +3702,45 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>classroom-style discussion</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>offering reassurance</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3760,26 +3750,31 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>clarifying what another has said</t>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>communication avoiding interrupting</t>
+          <t>active listening</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3791,19 +3786,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3815,67 +3810,77 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -3883,28 +3888,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -3912,28 +3917,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -3941,28 +3946,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -3972,26 +3977,26 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+          <t>A communication that transmits the content of an intervention</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4001,103 +4006,108 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4109,48 +4119,43 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4162,19 +4167,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4186,48 +4191,43 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>script-based communication</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>communication channel</t>
+          <t>communication message</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,22 +448,22 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -475,12 +475,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,13 +491,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>communication message</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -505,7 +505,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -517,21 +517,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -543,21 +543,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -569,21 +569,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -621,37 +621,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -663,47 +673,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -715,37 +720,62 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
-        </is>
-      </c>
+          <t>BCIO:044128</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>source visual style</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -757,42 +787,62 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
-        </is>
-      </c>
+          <t>BCIO:044130</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>readability</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>object layout</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -804,21 +854,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>tone of voice</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -830,21 +880,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -856,7 +906,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -864,23 +914,18 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -892,7 +937,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -900,18 +945,13 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>sincerity</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -923,7 +963,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -931,13 +971,13 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -949,7 +989,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -957,18 +997,13 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>didactic communication style</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -980,7 +1015,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -988,23 +1023,13 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1016,7 +1041,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1024,18 +1049,23 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1047,7 +1077,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1055,13 +1085,13 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1073,7 +1103,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1081,13 +1111,18 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1099,7 +1134,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1107,18 +1142,18 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1130,7 +1165,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1138,13 +1173,18 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1156,7 +1196,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1164,13 +1204,13 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1182,7 +1222,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1190,18 +1230,13 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1213,7 +1248,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1221,23 +1256,23 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>organised communication style</t>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>standardised</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1249,7 +1284,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1257,13 +1292,18 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1275,7 +1315,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1283,23 +1323,13 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1311,7 +1341,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1319,13 +1349,13 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1337,7 +1367,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1345,13 +1375,23 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1363,7 +1403,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1371,13 +1411,18 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1389,7 +1434,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1397,13 +1442,13 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1415,7 +1460,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1423,23 +1468,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -1451,7 +1486,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1459,13 +1494,18 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -1477,7 +1517,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1485,13 +1525,13 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
+          <t>A communication style characterised by anger.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -1503,7 +1543,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1511,13 +1551,18 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1529,7 +1574,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1537,13 +1582,23 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1555,7 +1610,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1563,13 +1618,13 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -1581,7 +1636,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1589,18 +1644,23 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -1612,7 +1672,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1620,18 +1680,18 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1643,7 +1703,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1651,13 +1711,13 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -1669,7 +1729,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1677,13 +1737,23 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -1695,7 +1765,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1703,18 +1773,18 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -1726,7 +1796,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1734,18 +1804,13 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -1757,7 +1822,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1765,18 +1830,23 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -1788,7 +1858,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1796,13 +1866,13 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -1814,7 +1884,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1822,23 +1892,13 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -1850,7 +1910,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1858,23 +1918,18 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -1886,7 +1941,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1894,13 +1949,13 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -1912,7 +1967,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1920,13 +1975,13 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -1938,7 +1993,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1946,18 +2001,13 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -1969,7 +2019,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1977,18 +2027,13 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>non-defensive communication style</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -2000,7 +2045,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2008,13 +2053,18 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -2026,7 +2076,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2034,13 +2084,23 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -2052,7 +2112,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2060,18 +2120,13 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -2083,7 +2138,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2091,13 +2146,13 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -2109,7 +2164,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2117,13 +2172,13 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -2135,7 +2190,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2143,18 +2198,18 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2166,7 +2221,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2174,13 +2229,18 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -2192,7 +2252,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2200,13 +2260,13 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2218,7 +2278,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2226,23 +2286,18 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -2254,7 +2309,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2262,18 +2317,13 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -2285,7 +2335,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2293,13 +2343,13 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -2311,21 +2361,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>non-responsive communication style</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -2337,21 +2387,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>oral communication pace</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -2363,67 +2413,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -2435,99 +2455,79 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
-        </is>
-      </c>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2539,21 +2539,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -2565,21 +2565,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -2617,37 +2617,47 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -2659,89 +2669,79 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
-        </is>
-      </c>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -2753,21 +2753,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -2779,21 +2779,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -2831,37 +2831,47 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -2873,47 +2883,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -2983,37 +2983,57 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>OBI:0000011</t>
+          <t>BCIO:050384</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication evoking another's ideas about change</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -3025,21 +3045,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -3051,21 +3071,21 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -3077,42 +3097,52 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -3124,26 +3154,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -3155,120 +3185,110 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>communication evoking another's ideas about change</t>
+          <t>communication avoiding argumentation</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>communication adding intensity to another's views</t>
+          <t>communication asking permission to provide information and advice</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>communication using particular language</t>
+          <t>communication adding intensity to another's views</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -3280,7 +3300,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3288,13 +3308,13 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>communication avoiding offensive language</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>Asking questions in order to better understand an issue.</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -3306,7 +3326,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3314,13 +3334,18 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -3332,7 +3357,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3340,30 +3365,20 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>using jargon</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -3371,13 +3386,13 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -3389,7 +3404,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -3397,91 +3412,91 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>affirming communication</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>paraphrasing</t>
+          <t>communication involving elaboration of arguments</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>paraphrasing</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -3493,21 +3508,21 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>emotionally expressive communication</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -3519,47 +3534,72 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>asking directive questions</t>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -3571,21 +3611,31 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -3597,7 +3647,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -3605,20 +3655,30 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
+          <t>communication exploring a person's thoughts about an experience</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -3626,13 +3686,18 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>asking clarifying questions</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -3644,21 +3709,26 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -3670,7 +3740,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3678,13 +3748,18 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>communication acknowledging difficulties</t>
+          <t>communication exploring a person's thoughts about a topic</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -3696,26 +3771,26 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>relationship building</t>
+          <t>communication encouraging discussion</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -3727,31 +3802,21 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>branded communication</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -3763,21 +3828,26 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -3789,47 +3859,57 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>summarising reflective communication</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -3841,47 +3921,57 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>metaphor-using reflective communication</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>double-sided reflective communication</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -3893,68 +3983,73 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>communication involving agreement</t>
+          <t>communication understating intensity of person's views</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>communication encouraging discussion</t>
+          <t>communication using particular language</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -3966,52 +4061,47 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>communication using slang</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -4023,26 +4113,21 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -4054,21 +4139,21 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>communication using neutral language</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -4080,7 +4165,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4088,18 +4173,18 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -4111,7 +4196,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4119,18 +4204,13 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -4142,26 +4222,26 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -4173,26 +4253,31 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -4204,26 +4289,26 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -4235,67 +4320,47 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>communication using interjections to signal attentiveness</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -4307,7 +4372,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4315,13 +4380,18 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>communication using preferred form of address</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -4333,21 +4403,21 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4359,21 +4429,21 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4385,21 +4455,21 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>communication avoiding interrupting</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4411,21 +4481,26 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>interrupting</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -4437,52 +4512,42 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>communication offering choice</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -4494,21 +4559,21 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4520,26 +4585,21 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4551,57 +4611,52 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>affirming communication</t>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>intervention content communication process</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4613,26 +4668,26 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4644,26 +4699,26 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4675,26 +4730,21 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>guiding communication</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4706,89 +4756,104 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>communication using rational arguments</t>
+          <t>communication involving confirmatory rephrasing</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>relationship building</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4800,145 +4865,110 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>communication inviting reactions to content presented</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>communication involving agreement</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:050552</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4950,57 +4980,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5012,7 +5022,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -5020,18 +5030,13 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about a topic</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5043,7 +5048,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -5051,18 +5056,13 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -5074,42 +5074,42 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>source-led intervention delivery</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
           <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -534,7 +534,7 @@
           <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -560,7 +560,7 @@
           <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -586,7 +586,7 @@
           <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -595,13 +595,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -609,10 +609,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -621,24 +621,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -647,24 +647,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -673,12 +673,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
+          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -689,13 +689,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication recipient</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -703,15 +703,10 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -720,96 +715,71 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:050384</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>communication avoiding interrupting</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -818,86 +788,76 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>object layout</t>
+          <t>communication offering choice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>affirming communication</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>aggressive communication style</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+          <t>A communication in which some participant requests information from another participant.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -906,7 +866,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -914,30 +874,30 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -945,16 +905,16 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -963,7 +923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -971,25 +931,20 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -997,25 +952,20 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1023,16 +973,16 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1041,43 +991,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1085,16 +1030,16 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>classroom-style discussion</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1103,91 +1048,81 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>interactive communication style</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>informal communication style</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1196,24 +1131,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>persuasive communication style</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1222,60 +1157,55 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>active participation encouraging communication style</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>structured communication style</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1284,200 +1214,185 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>gave a short lecture, conference presentation</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>polite communication style</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>non-confrontational communication style</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>attentive communication style</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>empathic communication style</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1486,7 +1401,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1494,21 +1409,16 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1517,7 +1427,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1525,25 +1435,30 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1551,21 +1466,16 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>communication using neutral language</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1574,7 +1484,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1582,26 +1492,16 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1610,7 +1510,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1618,16 +1518,16 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1636,7 +1536,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1644,26 +1544,16 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1672,100 +1562,105 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>patient communication style</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>"willing to listen"</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>engaging communication style</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1773,30 +1668,30 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>communication exploring a person's feelings about a topic</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>sincerity</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1804,25 +1699,30 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>communication exploring a person's thoughts about a topic</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1830,35 +1730,30 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>communication exploring a person's thoughts about an experience</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1866,99 +1761,109 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>non-judgmental communication style</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>fun</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>communication style demonstrating positive regard</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1967,24 +1872,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>verbally dominant communication style</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>communication showing acknowledgement</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1993,7 +1898,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2001,16 +1906,16 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>communication acknowledging difficulties</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2019,100 +1924,110 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>non-defensive communication style</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>communication using a particular form of address</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2120,25 +2035,30 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>communication using preferred form of address</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2146,16 +2066,16 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>communication using formal address</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2164,7 +2084,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2172,16 +2092,16 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>communication using informal address</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2190,60 +2110,45 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2252,55 +2157,55 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>collaborative communication style</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2309,7 +2214,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2317,25 +2222,30 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2343,110 +2253,140 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>summarising reflective communication</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
-        </is>
-      </c>
+          <t>BCIO:044075</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>communication message</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2455,296 +2395,331 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
-        </is>
-      </c>
+          <t>BCIO:044058</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
-        </is>
-      </c>
+          <t>BCIO:044078</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050552</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2753,50 +2728,40 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2805,24 +2770,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2831,24 +2796,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2857,7 +2822,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2865,16 +2830,16 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2883,57 +2848,52 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
-        </is>
-      </c>
+          <t>BCIO:044008</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>source-led intervention delivery</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>BCIO:050441</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
@@ -2941,24 +2901,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2967,45 +2927,50 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
-        </is>
-      </c>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3014,29 +2979,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3045,24 +3005,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3071,24 +3031,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3097,24 +3057,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>communication avoiding interrupting</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3123,128 +3083,108 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>communication avoiding argumentation</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3253,45 +3193,50 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3300,7 +3245,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3308,16 +3253,16 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>asking clarifying questions</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3326,29 +3271,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3357,45 +3297,40 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3404,102 +3339,107 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>paraphrasing</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3508,101 +3448,91 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>communication using interjections to signal attentiveness</t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>oral communication pace</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3611,34 +3541,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>exploring communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3647,7 +3567,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -3655,21 +3575,16 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about an experience</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3678,7 +3593,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -3686,30 +3601,35 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -3717,21 +3637,16 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about a topic</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3740,7 +3655,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3748,21 +3663,16 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3771,55 +3681,55 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>interactive communication style</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>impatient communication style</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3828,7 +3738,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -3836,21 +3746,16 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3859,7 +3764,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -3867,30 +3772,30 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -3898,30 +3803,30 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -3929,30 +3834,30 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -3960,52 +3865,47 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>angry communication style</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4014,45 +3914,50 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>aloof communication style</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4061,7 +3966,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4069,25 +3974,30 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>communication avoiding offensive language</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4095,16 +4005,16 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4113,7 +4023,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -4121,25 +4031,30 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -4147,16 +4062,16 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4165,7 +4080,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4173,21 +4088,16 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>using jargon</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4196,7 +4106,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4204,47 +4114,52 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>communication using non-pressurising language</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>rushed communication style</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
+          <t>A communication style conveying information in a hurried way.</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4253,126 +4168,131 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>semi-structured communication style</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>warm communication style</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>clarifying what another has said</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>polite communication style</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4380,21 +4300,16 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4403,7 +4318,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -4411,25 +4326,30 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>communication using informal address</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -4437,16 +4357,16 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>communication using formal address</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4455,24 +4375,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4481,29 +4401,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>communication style conveying concern</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4512,71 +4427,91 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>structured communication style</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>patient communication style</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4585,121 +4520,141 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>attentive communication style</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>easily comprehended communication style</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>empathic communication style</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -4707,21 +4662,16 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4730,24 +4680,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4756,7 +4706,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -4764,16 +4714,16 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>communication acknowledging difficulties</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4782,50 +4732,50 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4834,38 +4784,38 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>articulate communication style</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -4873,16 +4823,16 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4891,49 +4841,59 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>anxious communication style</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>formal communication style</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -4941,88 +4901,128 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>autonomy-supportive communication style</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>OBI:0000011</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>intervention style of delivery</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>directive communication style</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -5030,16 +5030,16 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -5048,71 +5048,71 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
+        </is>
+      </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -592,7 +592,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dose range specification</t>
+          <t>spécification d’intervalle de dose</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -603,7 +603,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
         </is>
       </c>
     </row>
@@ -15976,7 +15976,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BCIO:015317</t>
+          <t>BCIO:015392</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -15986,7 +15986,7 @@
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>expertise discipline population statistic</t>
+          <t>history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="H598" t="inlineStr"/>
@@ -15995,14 +15995,14 @@
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
-          <t>A population statistic about expertise discipline.</t>
+          <t>A population statistic about history of exposure to an occupational hazard.</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>BCIO:015287</t>
+          <t>BCIO:015393</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -16013,7 +16013,7 @@
       <c r="G599" t="inlineStr"/>
       <c r="H599" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training population statistic</t>
+          <t>percentage history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="I599" t="inlineStr"/>
@@ -16021,14 +16021,14 @@
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
-          <t>A population statistic about discipline of current programme of study or training.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BCIO:015288</t>
+          <t>BCIO:015394</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -16037,24 +16037,24 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr"/>
-      <c r="I600" t="inlineStr">
-        <is>
-          <t>percentage discipline of current programme of study or training population statistic</t>
-        </is>
-      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>proportion history of exposure to an occupational hazard population statistic</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
-          <t>A(n) discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>BCIO:015289</t>
+          <t>BCIO:015317</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -16062,25 +16062,25 @@
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>expertise discipline population statistic</t>
+        </is>
+      </c>
       <c r="H601" t="inlineStr"/>
-      <c r="I601" t="inlineStr">
-        <is>
-          <t>proportion discipline of current programme of study or training population statistic</t>
-        </is>
-      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
-          <t>A(n) discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
+          <t>A population statistic about expertise discipline.</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>BCIO:015319</t>
+          <t>BCIO:015287</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -16091,7 +16091,7 @@
       <c r="G602" t="inlineStr"/>
       <c r="H602" t="inlineStr">
         <is>
-          <t>proportion expertise discipline population statistic</t>
+          <t>discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="I602" t="inlineStr"/>
@@ -16099,14 +16099,14 @@
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
-          <t>A(n) expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
+          <t>A population statistic about discipline of current programme of study or training.</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>BCIO:015318</t>
+          <t>BCIO:015288</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -16115,24 +16115,24 @@
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>percentage expertise discipline population statistic</t>
-        </is>
-      </c>
-      <c r="I603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>percentage discipline of current programme of study or training population statistic</t>
+        </is>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
-          <t>A(n) expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
+          <t>A(n) discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015289</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -16141,24 +16141,24 @@
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
-        </is>
-      </c>
-      <c r="I604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>proportion discipline of current programme of study or training population statistic</t>
+        </is>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
-          <t>A population statistic about discipline of highest level of formal educational qualification achieved.</t>
+          <t>A(n) discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>BCIO:015292</t>
+          <t>BCIO:015319</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -16167,24 +16167,24 @@
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr"/>
-      <c r="I605" t="inlineStr">
-        <is>
-          <t>proportion discipline of highest level of formal educational qualification achieved population statistic</t>
-        </is>
-      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>proportion expertise discipline population statistic</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
-          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BCIO:015291</t>
+          <t>BCIO:015318</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -16193,24 +16193,24 @@
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr"/>
-      <c r="I606" t="inlineStr">
-        <is>
-          <t>percentage discipline of highest level of formal educational qualification achieved population statistic</t>
-        </is>
-      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>percentage expertise discipline population statistic</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
-          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>BCIO:015392</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -16218,25 +16218,25 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>history of exposure to an occupational hazard population statistic</t>
-        </is>
-      </c>
-      <c r="H607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
+        </is>
+      </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
-          <t>A population statistic about history of exposure to an occupational hazard.</t>
+          <t>A population statistic about discipline of highest level of formal educational qualification achieved.</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BCIO:015393</t>
+          <t>BCIO:015292</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -16245,24 +16245,24 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>percentage history of exposure to an occupational hazard population statistic</t>
-        </is>
-      </c>
-      <c r="I608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>proportion discipline of highest level of formal educational qualification achieved population statistic</t>
+        </is>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>BCIO:015394</t>
+          <t>BCIO:015291</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -16271,17 +16271,17 @@
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>proportion history of exposure to an occupational hazard population statistic</t>
-        </is>
-      </c>
-      <c r="I609" t="inlineStr"/>
+      <c r="H609" t="inlineStr"/>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>percentage discipline of highest level of formal educational qualification achieved population statistic</t>
+        </is>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
     </row>
@@ -18403,7 +18403,7 @@
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -18809,7 +18809,7 @@
       <c r="E707" t="inlineStr"/>
       <c r="F707" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G707" t="inlineStr"/>
@@ -20696,7 +20696,7 @@
       <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
-          <t>A person who is between the ages of  13 and 19.</t>
+          <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
     </row>
@@ -21432,7 +21432,7 @@
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>établissement de pharmacologie</t>
         </is>
       </c>
       <c r="I808" t="inlineStr"/>
@@ -22027,7 +22027,7 @@
       <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>fiat object</t>
         </is>
       </c>
       <c r="F831" t="inlineStr"/>
@@ -22333,7 +22333,7 @@
       <c r="C843" t="inlineStr"/>
       <c r="D843" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>realizable</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -22548,7 +22548,7 @@
       <c r="K851" t="inlineStr"/>
       <c r="L851" t="inlineStr">
         <is>
-          <t>A disposition that inheres in some extended organism.</t>
+          <t>A bodily disposition is a disposition that inheres in some extended organism. Examples are: my disposition to catch a cold when exposed to a virus, my ability to speak the English language.</t>
         </is>
       </c>
     </row>
@@ -22938,7 +22938,7 @@
       <c r="K866" t="inlineStr"/>
       <c r="L866" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
     </row>
@@ -23890,7 +23890,7 @@
       <c r="K903" t="inlineStr"/>
       <c r="L903" t="inlineStr">
         <is>
-          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
+          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
         </is>
       </c>
     </row>
@@ -25008,7 +25008,7 @@
       <c r="K946" t="inlineStr"/>
       <c r="L946" t="inlineStr">
         <is>
-          <t>A bodily quality is a quality that inheres in some extended organism.</t>
+          <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26256,7 @@
       <c r="K994" t="inlineStr"/>
       <c r="L994" t="inlineStr">
         <is>
-          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
+          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
         </is>
       </c>
     </row>
@@ -26620,7 +26620,7 @@
       <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
     </row>
@@ -39649,7 +39649,7 @@
       <c r="K1487" t="inlineStr"/>
       <c r="L1487" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -44312,7 +44312,7 @@
       <c r="K1665" t="inlineStr"/>
       <c r="L1665" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
+          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
     </row>
@@ -45067,7 +45067,7 @@
       <c r="K1694" t="inlineStr"/>
       <c r="L1694" t="inlineStr">
         <is>
-          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
+          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
     </row>
